--- a/src/main/resources/data-test.xlsx
+++ b/src/main/resources/data-test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE91F9-663D-614E-8460-6399B0D08AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7D4B0-C6AA-024C-98C2-0DE4AC903838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{0BEF9FD4-D2C7-614F-A1B4-49FF46FE45AD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="22480" windowHeight="16940" activeTab="1" xr2:uid="{0BEF9FD4-D2C7-614F-A1B4-49FF46FE45AD}"/>
   </bookViews>
   <sheets>
     <sheet name="1st try" sheetId="1" r:id="rId1"/>
     <sheet name="sans-contre-indication-âge" sheetId="2" r:id="rId2"/>
+    <sheet name="simplexe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="46">
   <si>
     <t>Maladies</t>
   </si>
@@ -190,6 +191,12 @@
   </si>
   <si>
     <t>(effet affaiblissement  = 0 or etat affaiblissement patient = 9)</t>
+  </si>
+  <si>
+    <t>Combinaison optimale</t>
+  </si>
+  <si>
+    <t>OK !</t>
   </si>
 </sst>
 </file>
@@ -255,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +287,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -433,12 +458,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -452,15 +486,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -471,6 +496,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,27 +527,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
@@ -818,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01406F79-93CF-4446-A8C4-25A15FD9EAD8}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,15 +1022,15 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1191,15 +1239,15 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
       <c r="J25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1458,15 +1506,15 @@
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
       <c r="J43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1673,18 +1721,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B255CFB-74EF-A643-828C-F00115689869}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1693,220 +1741,220 @@
         <v>13</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>10</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20">
-        <v>9</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="C4" s="17">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>8</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="20">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
         <v>8</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>10</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>6</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>10</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>10</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="20">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17">
         <v>10</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1914,821 +1962,824 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="E16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>2</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>2</v>
       </c>
-      <c r="F17" s="20">
-        <v>9</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="17">
         <v>10</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>1</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>9000</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>6</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>2</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <v>10</v>
       </c>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
         <v>8000</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="20">
-        <v>9</v>
-      </c>
-      <c r="C19" s="20">
-        <v>7</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="B19" s="17">
+        <v>9</v>
+      </c>
+      <c r="C19" s="17">
+        <v>7</v>
+      </c>
+      <c r="D19" s="17">
         <v>6</v>
       </c>
-      <c r="E19" s="20">
-        <v>9</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="E19" s="17">
+        <v>9</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
         <v>1</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="17">
         <v>6</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>11000</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>10</v>
       </c>
-      <c r="D20" s="20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="20">
-        <v>7</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="D20" s="17">
+        <v>7</v>
+      </c>
+      <c r="E20" s="17">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18">
         <v>1</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="17">
         <v>3</v>
       </c>
-      <c r="H20" s="20">
-        <v>4</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="17">
+        <v>4</v>
+      </c>
+      <c r="I20" s="19">
         <v>12000</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="20">
-        <v>4</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="C21" s="17">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="17">
         <v>2</v>
       </c>
-      <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="17">
         <v>10</v>
       </c>
-      <c r="I21" s="22">
-        <v>6000</v>
-      </c>
-      <c r="J21" s="16"/>
+      <c r="I21" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>6</v>
       </c>
-      <c r="C22" s="20">
-        <v>4</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="C22" s="17">
+        <v>4</v>
+      </c>
+      <c r="D22" s="17">
         <v>5</v>
       </c>
-      <c r="E22" s="20">
-        <v>4</v>
-      </c>
-      <c r="F22" s="20">
-        <v>4</v>
-      </c>
-      <c r="G22" s="20">
-        <v>9</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="E22" s="17">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4</v>
+      </c>
+      <c r="G22" s="17">
+        <v>9</v>
+      </c>
+      <c r="H22" s="17">
         <v>2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>10000</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="19" t="s">
+      <c r="I26" s="13"/>
+      <c r="J26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <v>5</v>
       </c>
-      <c r="C27" s="21">
-        <v>7</v>
-      </c>
-      <c r="D27" s="21">
+      <c r="C27" s="18">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18">
         <v>8</v>
       </c>
-      <c r="E27" s="21">
-        <v>7</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
-        <v>9</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="19" t="s">
+      <c r="E27" s="18">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="33" cm="1">
+      <c r="B34" s="25" cm="1">
         <f t="array" ref="B34">MROUND(MAX(IFERROR($B$27:$H$27/$B17:$H17, 0)),1)</f>
         <v>9</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="23">
         <f>B34*$I17</f>
         <v>81000</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="59" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="36" cm="1">
+      <c r="B35" s="28" cm="1">
         <f t="array" ref="B35">MROUND(MAX(IFERROR($B$27:$H$27/$B18:$H18, 0)),1)</f>
         <v>4</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="29">
         <f t="shared" ref="C35:C39" si="0">B35*$I18</f>
         <v>32000</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="33" cm="1">
+      <c r="B36" s="25" cm="1">
         <f t="array" ref="B36">MROUND(MAX(IFERROR($B$27:$H$27/$B19:$H19, 0)),1)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="23">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="33" cm="1">
+      <c r="B37" s="25" cm="1">
         <f t="array" ref="B37">MROUND(MAX(IFERROR($B$27:$H$27/$B20:$H20, 0)),1)</f>
         <v>2</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="23">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="38"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="33" cm="1">
+      <c r="B38" s="25" cm="1">
         <f t="array" ref="B38">MROUND(MAX(IFERROR($B$27:$H$27/$B21:$H21, 0)),1)</f>
         <v>4</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="23">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="39"/>
+        <v>16000</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="33" cm="1">
+      <c r="B39" s="25" cm="1">
         <f t="array" ref="B39">MROUND(MAX(IFERROR($B$27:$H$27/$B22:$H22, 0)),1)</f>
         <v>5</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="23">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="29"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="43"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="17" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="25" t="s">
+      <c r="E44" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="25" t="s">
+      <c r="I44" s="13"/>
+      <c r="J44" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="22">
         <v>5</v>
       </c>
-      <c r="C45" s="25">
-        <v>4</v>
-      </c>
-      <c r="D45" s="25">
+      <c r="C45" s="22">
+        <v>4</v>
+      </c>
+      <c r="D45" s="22">
         <v>3</v>
       </c>
-      <c r="E45" s="25">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25">
-        <v>9</v>
-      </c>
-      <c r="G45" s="25">
-        <v>9</v>
-      </c>
-      <c r="H45" s="25">
-        <v>9</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>9</v>
+      </c>
+      <c r="G45" s="22">
+        <v>9</v>
+      </c>
+      <c r="H45" s="22">
+        <v>9</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="29"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="38"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="38"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="38"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="33" cm="1">
+      <c r="B52" s="25" cm="1">
         <f t="array" ref="B52">MROUND(MAX(IFERROR($B$45:$H$45/B17:H17, 0)),1)</f>
         <v>9</v>
       </c>
-      <c r="C52" s="30">
-        <f>B52*I17</f>
+      <c r="C52" s="23">
+        <f t="shared" ref="C52:C57" si="1">B52*I17</f>
         <v>81000</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="36" cm="1">
+      <c r="B53" s="28" cm="1">
         <f t="array" ref="B53">MROUND(MAX(IFERROR($B$45:$H$45/B18:H18, 0)),1)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="37">
-        <f>B53*I18</f>
+      <c r="C53" s="29">
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="36" cm="1">
+      <c r="B54" s="28" cm="1">
         <f t="array" ref="B54">MROUND(MAX(IFERROR($B$45:$H$45/B19:H19, 0)),1)</f>
         <v>9</v>
       </c>
-      <c r="C54" s="37">
-        <f>B54*I19</f>
+      <c r="C54" s="29">
+        <f t="shared" si="1"/>
         <v>99000</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="33" cm="1">
+      <c r="B55" s="25" cm="1">
         <f t="array" ref="B55">MROUND(MAX(IFERROR($B$45:$H$45/B20:H20, 0)),1)</f>
         <v>9</v>
       </c>
-      <c r="C55" s="30">
-        <f>B55*I20</f>
+      <c r="C55" s="23">
+        <f t="shared" si="1"/>
         <v>108000</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="36" cm="1">
+      <c r="B56" s="28" cm="1">
         <f t="array" ref="B56">MROUND(MAX(IFERROR($B$45:$H$45/B21:H21, 0)),1)</f>
         <v>9</v>
       </c>
-      <c r="C56" s="37">
-        <f>B56*I21</f>
-        <v>54000</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="C56" s="29">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="33" cm="1">
+      <c r="B57" s="25" cm="1">
         <f t="array" ref="B57">MROUND(MAX(IFERROR($B$45:$H$45/B22:H22, 0)),1)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="30">
-        <f>B57*I22</f>
+      <c r="C57" s="23">
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2738,4 +2789,1054 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA762AB-2766-904D-BCFD-87BC128B6392}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>9000</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>8000</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="17">
+        <v>9</v>
+      </c>
+      <c r="C19" s="17">
+        <v>7</v>
+      </c>
+      <c r="D19" s="17">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17">
+        <v>9</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>6</v>
+      </c>
+      <c r="I19" s="19">
+        <v>11000</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="17">
+        <v>5</v>
+      </c>
+      <c r="C20" s="17">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17">
+        <v>7</v>
+      </c>
+      <c r="E20" s="17">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4</v>
+      </c>
+      <c r="I20" s="19">
+        <v>12000</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>10</v>
+      </c>
+      <c r="I21" s="19">
+        <v>6000</v>
+      </c>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="17">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4</v>
+      </c>
+      <c r="D22" s="17">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4</v>
+      </c>
+      <c r="G22" s="17">
+        <v>9</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="18">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18">
+        <v>8</v>
+      </c>
+      <c r="E27" s="18">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" cm="1">
+        <f t="array" ref="B28:H28">B27:H27-B19:H19</f>
+        <v>-4</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>-2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>3</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="46">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="17">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>4</v>
+      </c>
+      <c r="D44" s="17">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>9</v>
+      </c>
+      <c r="G44" s="17">
+        <v>9</v>
+      </c>
+      <c r="H44" s="17">
+        <v>9</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="46">
+        <v>9</v>
+      </c>
+      <c r="C51" s="19">
+        <v>81000</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="48">
+        <v>2</v>
+      </c>
+      <c r="C52" s="49">
+        <v>16000</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="48">
+        <v>9</v>
+      </c>
+      <c r="C53" s="49">
+        <v>99000</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="46">
+        <v>9</v>
+      </c>
+      <c r="C54" s="19">
+        <v>108000</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="48">
+        <v>9</v>
+      </c>
+      <c r="C55" s="49">
+        <v>54000</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="46">
+        <v>5</v>
+      </c>
+      <c r="C56" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B42:H42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>